--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9698bc976e9b9b84/Desktop/gitHarry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC104828319C58605ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E03604D-80B5-4756-AC7D-ABC3F65F305D}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC104828319C58605ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4419CBAA-73B9-47A6-8B66-CBA112333773}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>gewwgwegw</t>
   </si>
@@ -34,6 +34,27 @@
   </si>
   <si>
     <t>gweg</t>
+  </si>
+  <si>
+    <t>igwgfwhgbwhj</t>
+  </si>
+  <si>
+    <t>ffkwmfp jwnwjnfnjfnfnfnenfnefnwefwefnweofowjfwjfoiwfnfmsvkdnvkjfnv  vks vkjfvmvlf fenvpwvdas vsngwgzlsg</t>
+  </si>
+  <si>
+    <t>fjawojfafafalnfa</t>
+  </si>
+  <si>
+    <t>eifk;wanfwanfanflnasdfa'aasdgsagksa jng ask</t>
+  </si>
+  <si>
+    <t>k.ag.knvkj.njsv</t>
+  </si>
+  <si>
+    <t>gag asv gk.abgwaawl</t>
+  </si>
+  <si>
+    <t>;aksadbuigbsapuivw</t>
   </si>
 </sst>
 </file>
@@ -86,6 +107,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,25 +376,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E9:G10"/>
+  <dimension ref="B7:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
       <c r="G9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
